--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2328308.730814507</v>
+        <v>-2331064.072893556</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>216.5492936881122</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>26.12899921888233</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>31.93636766925334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0.3990730654728122</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>260.9409599859702</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>250.7708538833089</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186934</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>86.30422886666884</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>116.5740405846446</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.16258973249151</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>273.0762563237068</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>329.2236759936004</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>43.04030134093979</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>134.9936841414251</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>190.8937286522917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076562</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856704</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695621</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222801</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972044</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483.762934309819</v>
+        <v>1000.823018165739</v>
       </c>
       <c r="C2" t="n">
-        <v>1483.762934309819</v>
+        <v>1000.823018165739</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.026274018797</v>
+        <v>1000.823018165739</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>1000.823018165739</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>589.8371133761314</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>173.384852068006</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520161</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702063</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1166.3407262901</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.815832525684</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443063</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>2117.196763672745</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>1764.42810840263</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.902266285631</v>
+        <v>1390.962350141551</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.762934309819</v>
+        <v>1000.823018165739</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>81.08615341728972</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>464.3298303300205</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>1041.052645433275</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.114624130381</v>
+        <v>1304.992176928761</v>
       </c>
       <c r="N3" t="n">
-        <v>2113.58070317412</v>
+        <v>1590.326047362092</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925577</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>317.8552588760508</v>
+        <v>202.3195988416936</v>
       </c>
       <c r="C4" t="n">
-        <v>317.8552588760508</v>
+        <v>202.3195988416936</v>
       </c>
       <c r="D4" t="n">
-        <v>167.7386194637151</v>
+        <v>52.20295942935792</v>
       </c>
       <c r="E4" t="n">
-        <v>167.7386194637151</v>
+        <v>52.20295942935792</v>
       </c>
       <c r="F4" t="n">
-        <v>167.7386194637151</v>
+        <v>52.20295942935792</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637151</v>
+        <v>52.20295942935792</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>52.20295942935792</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4513,25 +4513,25 @@
         <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628636</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="T4" t="n">
-        <v>991.0700018628636</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="U4" t="n">
-        <v>727.4932746043079</v>
+        <v>904.4056216946642</v>
       </c>
       <c r="V4" t="n">
-        <v>727.4932746043079</v>
+        <v>651.1017288832411</v>
       </c>
       <c r="W4" t="n">
-        <v>727.4932746043079</v>
+        <v>651.1017288832411</v>
       </c>
       <c r="X4" t="n">
-        <v>499.5037237062905</v>
+        <v>423.1121779852238</v>
       </c>
       <c r="Y4" t="n">
-        <v>499.5037237062905</v>
+        <v>202.3195988416936</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.007899202015</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.007899202015</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D5" t="n">
-        <v>843.7422005952644</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E5" t="n">
-        <v>843.7422005952644</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>432.7562958056569</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719911</v>
@@ -4568,16 +4568,16 @@
         <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
         <v>2075.818195082062</v>
@@ -4595,22 +4595,22 @@
         <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618235</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="W5" t="n">
-        <v>1319.759455348121</v>
+        <v>2047.576709462949</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.759455348121</v>
+        <v>1674.110951201869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.007899202015</v>
+        <v>1283.971619226057</v>
       </c>
     </row>
     <row r="6">
@@ -4629,16 +4629,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4650,22 +4650,22 @@
         <v>426.7768722128337</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291485</v>
+        <v>871.0311846349152</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1554.712543231644</v>
+        <v>1627.746635452983</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.3373383878483</v>
+        <v>712.3347040813388</v>
       </c>
       <c r="C7" t="n">
-        <v>347.3373383878483</v>
+        <v>712.3347040813388</v>
       </c>
       <c r="D7" t="n">
-        <v>347.3373383878483</v>
+        <v>562.2180646690031</v>
       </c>
       <c r="E7" t="n">
-        <v>347.3373383878483</v>
+        <v>414.30497108661</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>267.4150235886996</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>99.43883485058893</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>99.43883485058893</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121973</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452886</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1032.809956463284</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V7" t="n">
-        <v>1032.809956463284</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="W7" t="n">
-        <v>756.9753541161053</v>
+        <v>1161.116834122886</v>
       </c>
       <c r="X7" t="n">
-        <v>528.985803218088</v>
+        <v>933.127283224869</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.985803218088</v>
+        <v>712.3347040813388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1826.387675904095</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="C8" t="n">
-        <v>1457.425158963683</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="D8" t="n">
-        <v>1099.159460356932</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E8" t="n">
-        <v>1099.159460356932</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>688.1735555673249</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>1960.11594610227</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>1607.347290832156</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.527007879906</v>
+        <v>1233.881532571076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1826.387675904095</v>
+        <v>843.7422005952644</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>491.5015312480865</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421438</v>
+        <v>788.8134803644011</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.281905962038</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N9" t="n">
-        <v>1630.69146728778</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.7965526904445</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="C10" t="n">
-        <v>600.7965526904445</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D10" t="n">
-        <v>600.7965526904445</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E10" t="n">
-        <v>452.8834591080514</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4990,22 +4990,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.04909569586</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.04909569586</v>
+        <v>1510.626413445368</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.04909569586</v>
+        <v>1255.941925239481</v>
       </c>
       <c r="W10" t="n">
-        <v>1231.227147562232</v>
+        <v>966.5247552025202</v>
       </c>
       <c r="X10" t="n">
-        <v>1003.237596664214</v>
+        <v>738.5352043045028</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.4450175206842</v>
+        <v>517.7426251609727</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5039,25 +5039,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5121,25 +5121,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578617</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000598</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092274</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249859</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>853.936052826184</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138482</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547835</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
@@ -6853,34 +6853,34 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,10 +7132,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7546,34 +7546,34 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942355</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>224.1699036371178</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>4.010880068019844</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>290.0325339499065</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>148.4266296017846</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>74.65481927719912</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326897</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>65.37844346995249</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>232.440004897198</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>282.4684462306291</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>337.7947330092157</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>25.30430075184881</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>1.366789440519088</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744673</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434117</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-5.988543122513853e-13</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1377638.715158121</v>
+        <v>1377638.715158122</v>
       </c>
     </row>
     <row r="8">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272275</v>
+        <v>31766.15265272273</v>
       </c>
       <c r="C2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="D2" t="n">
         <v>41052.08849321418</v>
       </c>
-      <c r="D2" t="n">
-        <v>41052.08849321417</v>
-      </c>
       <c r="E2" t="n">
+        <v>40357.32998450032</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40357.32998450032</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="H2" t="n">
         <v>40357.32998450031</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40357.3299845003</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40357.3299845003</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321419</v>
@@ -26338,19 +26338,19 @@
         <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26366,13 +26366,13 @@
         <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898954</v>
+        <v>172764.3597898953</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="J3" t="n">
         <v>169414.0168260481</v>
@@ -26399,7 +26399,7 @@
         <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53783.70994333942</v>
+        <v>53783.70994333933</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="I4" t="n">
         <v>14278.33979478852</v>
@@ -26442,16 +26442,16 @@
         <v>14278.33979478852</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478856</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478857</v>
       </c>
       <c r="O4" t="n">
         <v>14278.33979478851</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1051045.568063003</v>
+        <v>-1051509.864855028</v>
       </c>
       <c r="C6" t="n">
-        <v>-354260.1153834387</v>
+        <v>-354260.1153834386</v>
       </c>
       <c r="D6" t="n">
-        <v>-181495.7555935433</v>
+        <v>-181495.7555935434</v>
       </c>
       <c r="E6" t="n">
-        <v>-567941.5481168523</v>
+        <v>-567976.2860422882</v>
       </c>
       <c r="F6" t="n">
-        <v>-67052.68037110181</v>
+        <v>-67087.41829653755</v>
       </c>
       <c r="G6" t="n">
-        <v>-67052.68037110186</v>
+        <v>-67087.41829653757</v>
       </c>
       <c r="H6" t="n">
-        <v>-67052.68037110186</v>
+        <v>-67087.41829653752</v>
       </c>
       <c r="I6" t="n">
-        <v>-95818.0851491215</v>
+        <v>-95818.08514912154</v>
       </c>
       <c r="J6" t="n">
         <v>-245804.3839815378</v>
       </c>
       <c r="K6" t="n">
-        <v>-76390.36715548973</v>
+        <v>-76390.36715548977</v>
       </c>
       <c r="L6" t="n">
-        <v>-76390.36715548976</v>
+        <v>-76390.36715548969</v>
       </c>
       <c r="M6" t="n">
         <v>-207274.8240597249</v>
       </c>
       <c r="N6" t="n">
-        <v>-95818.08514912144</v>
+        <v>-95818.0851491216</v>
       </c>
       <c r="O6" t="n">
-        <v>-76390.36715548972</v>
+        <v>-76390.36715548973</v>
       </c>
       <c r="P6" t="n">
-        <v>-76390.36715548972</v>
+        <v>-76390.36715548973</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203968</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522371</v>
+        <v>189.725434152237</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918289</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>138.1337479325708</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.3803034340136</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>262.9367398507442</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>269.6638980714089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>57.32806978050961</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>13.44674201288422</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>82.30134738826899</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>284.7119571291951</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>151.2329150782805</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>95.62926968429932</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,10 +31276,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
@@ -31297,16 +31297,16 @@
         <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583803</v>
@@ -31379,7 +31379,7 @@
         <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31394,7 +31394,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315819</v>
@@ -31440,7 +31440,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093093</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,13 +32318,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33026,13 +33026,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352465</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
         <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>502.0650746640193</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
         <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>29.58211928734343</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>578.2485646906453</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
         <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.385208115341</v>
@@ -34945,19 +34945,19 @@
         <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35018,25 @@
         <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>448.7417297192743</v>
       </c>
       <c r="M6" t="n">
         <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>469.0079115254238</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352465</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35106,7 +35106,7 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>253.9254024630966</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>570.7518035997548</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.18116013495035</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36674,13 +36674,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
